--- a/main/ig/ValueSet-input-tddui-task-bilan-valueset.xlsx
+++ b/main/ig/ValueSet-input-tddui-task-bilan-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:03:49+00:00</t>
+    <t>2025-12-18T17:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-input-tddui-task-bilan-valueset.xlsx
+++ b/main/ig/ValueSet-input-tddui-task-bilan-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:22:25+00:00</t>
+    <t>2025-12-18T17:25:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-input-tddui-task-bilan-valueset.xlsx
+++ b/main/ig/ValueSet-input-tddui-task-bilan-valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:25:31+00:00</t>
+    <t>2025-12-19T08:32:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-input-tddui-task-bilan-valueset.xlsx
+++ b/main/ig/ValueSet-input-tddui-task-bilan-valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-ballot</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:32:44+00:00</t>
+    <t>2025-12-19T08:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-input-tddui-task-bilan-valueset.xlsx
+++ b/main/ig/ValueSet-input-tddui-task-bilan-valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:44:55+00:00</t>
+    <t>2025-12-19T09:03:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-input-tddui-task-bilan-valueset.xlsx
+++ b/main/ig/ValueSet-input-tddui-task-bilan-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T09:03:44+00:00</t>
+    <t>2025-12-19T09:25:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-input-tddui-task-bilan-valueset.xlsx
+++ b/main/ig/ValueSet-input-tddui-task-bilan-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T09:25:15+00:00</t>
+    <t>2025-12-19T09:58:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
